--- a/Excel/PivotTable/sample data for pivot table Simple View.xlsx
+++ b/Excel/PivotTable/sample data for pivot table Simple View.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f6aa2618df47760/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\aitraining\Excel\PivotTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{AE47C1C5-1D4D-4BA7-8860-A9C8E0407CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DFA1AB1-F711-4A79-8FCF-99ECFFAE50BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB76A7-1A58-4056-BC9D-6427BA5539E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{024D0AE9-6F2E-4C51-A183-2FDFBB1B253F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:J453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2"/>
     </row>
